--- a/src/test/resources/io.dingodb.test/testdata/btreemysqlcases/prepareStatement/mysql_ps_dml_cases_btree.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/btreemysqlcases/prepareStatement/mysql_ps_dml_cases_btree.xlsx
@@ -196,15 +196,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/expectedresult/btree_ps_dml_002.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/expectedresult/btree_ps_dml_003.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/prepareStatement/expectedresult/btree_ps_dml_004.csv</t>
+    <t>src/test/resources/io.dingodb.test/testdata/btreemysqlcases/prepareStatement/expectedresult/btree_ps_dml_002.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/btreemysqlcases/prepareStatement/expectedresult/btree_ps_dml_003.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/btreemysqlcases/prepareStatement/expectedresult/btree_ps_dml_004.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +581,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
